--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>9/18,21/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/5,6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2634,7 +2643,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="16"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="15"/>
@@ -2992,12 +3001,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K149"/>
+  <dimension ref="A2:K152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K121" sqref="K121"/>
+      <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,7 +3167,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.1920000000000215</v>
+        <v>9.6920000000000215</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3168,7 +3177,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>86.417000000000002</v>
+        <v>86.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5504,13 +5513,15 @@
       <c r="B119" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39">
         <v>1</v>
@@ -5566,24 +5577,34 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
+      <c r="A122" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
-      <c r="B123" s="20"/>
+      <c r="B123" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
       <c r="E123" s="9"/>
@@ -5592,14 +5613,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H123" s="39"/>
+      <c r="H123" s="39">
+        <v>1</v>
+      </c>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
+      <c r="K123" s="49">
+        <v>45210</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
+      <c r="B124" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
@@ -5608,16 +5635,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H124" s="39"/>
+      <c r="H124" s="39">
+        <v>1</v>
+      </c>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
+      <c r="K124" s="49">
+        <v>45223</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
-      <c r="B125" s="20"/>
+      <c r="B125" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
+      <c r="D125" s="39">
+        <v>1</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
       <c r="G125" s="13" t="str">
@@ -5627,10 +5662,14 @@
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
+      <c r="K125" s="49">
+        <v>45225</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45231</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5646,7 +5685,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>45261</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5662,7 +5703,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="48" t="s">
+        <v>109</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5678,7 +5721,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>45292</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5694,7 +5739,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>45323</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5710,7 +5757,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>45352</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5726,7 +5775,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <v>45383</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5742,7 +5793,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>45413</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5758,7 +5811,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>45444</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -5774,7 +5829,9 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
+      <c r="A135" s="40">
+        <v>45474</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -5790,7 +5847,9 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <v>45505</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5806,7 +5865,9 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <v>45536</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5822,7 +5883,9 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="40">
+        <v>45566</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -5838,7 +5901,9 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="40">
+        <v>45597</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -5854,7 +5919,9 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+      <c r="A140" s="40">
+        <v>45627</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -5998,20 +6065,68 @@
       <c r="K148" s="20"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="43"/>
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="42" t="str">
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H149" s="43"/>
+      <c r="H149" s="39"/>
       <c r="I149" s="9"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="15"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
